--- a/docs/orga/habilitations.xlsx
+++ b/docs/orga/habilitations.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
   <si>
     <t>Nom</t>
   </si>
@@ -165,6 +165,12 @@
   </si>
   <si>
     <t>ELHAKIMYAmine</t>
+  </si>
+  <si>
+    <t>houssambel</t>
+  </si>
+  <si>
+    <t>s810106adm</t>
   </si>
 </sst>
 </file>
@@ -582,7 +588,7 @@
   <dimension ref="B3:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,7 +693,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
@@ -701,7 +707,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">

--- a/docs/orga/habilitations.xlsx
+++ b/docs/orga/habilitations.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$B$3:$E$3</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
   <si>
     <t>Nom</t>
   </si>
@@ -171,6 +174,9 @@
   </si>
   <si>
     <t>s810106adm</t>
+  </si>
+  <si>
+    <t>MINGW64</t>
   </si>
 </sst>
 </file>
@@ -588,7 +594,7 @@
   <dimension ref="B3:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,7 +727,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
@@ -865,6 +871,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B3:E3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/docs/orga/habilitations.xlsx
+++ b/docs/orga/habilitations.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
   <si>
     <t>Nom</t>
   </si>
@@ -177,13 +177,31 @@
   </si>
   <si>
     <t>MINGW64</t>
+  </si>
+  <si>
+    <t>QAAFAVMODWEB13.dmzppappafa.intraxa</t>
+  </si>
+  <si>
+    <t>Serveurs coreit</t>
+  </si>
+  <si>
+    <t>QAAFAVMODWEB14.dmzppappafa.intraxa</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Habilitations users</t>
+  </si>
+  <si>
+    <t>Habilitations vsts (ALISE\vstsafaagent)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +226,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -254,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -277,6 +303,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,20 +621,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E21"/>
+  <dimension ref="B3:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -617,8 +648,17 @@
       <c r="E3" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
@@ -631,8 +671,17 @@
       <c r="E4" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
@@ -645,8 +694,17 @@
       <c r="E5" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
@@ -660,7 +718,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
@@ -674,7 +732,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
@@ -688,7 +746,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
@@ -702,7 +760,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
@@ -716,7 +774,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
@@ -730,7 +788,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>20</v>
       </c>
@@ -744,7 +802,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>22</v>
       </c>
@@ -758,7 +816,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>24</v>
       </c>
@@ -772,7 +830,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>26</v>
       </c>
@@ -786,7 +844,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>28</v>
       </c>

--- a/docs/orga/habilitations.xlsx
+++ b/docs/orga/habilitations.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
   <si>
     <t>Nom</t>
   </si>
@@ -195,6 +195,12 @@
   </si>
   <si>
     <t>Habilitations vsts (ALISE\vstsafaagent)</t>
+  </si>
+  <si>
+    <t>youness0710</t>
+  </si>
+  <si>
+    <t>oussama-smiri</t>
   </si>
 </sst>
 </file>
@@ -623,7 +629,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -692,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>52</v>
@@ -827,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">

--- a/docs/orga/habilitations.xlsx
+++ b/docs/orga/habilitations.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$B$3:$E$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$B$3:$E$21</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
   <si>
     <t>Nom</t>
   </si>
@@ -201,6 +201,27 @@
   </si>
   <si>
     <t>oussama-smiri</t>
+  </si>
+  <si>
+    <t>BENKECHIKECH</t>
+  </si>
+  <si>
+    <t>Aminechakr</t>
+  </si>
+  <si>
+    <t>MedEIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IssamAxaTech </t>
+  </si>
+  <si>
+    <t>braadil</t>
+  </si>
+  <si>
+    <t>MeriemHamdaoui</t>
+  </si>
+  <si>
+    <t>hrsanaa</t>
   </si>
 </sst>
 </file>
@@ -629,15 +650,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35.28515625" bestFit="1" customWidth="1"/>
@@ -677,7 +696,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>50</v>
@@ -723,7 +742,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -807,7 +826,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
@@ -849,7 +868,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
@@ -905,7 +924,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
@@ -919,7 +938,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
@@ -933,11 +952,11 @@
         <v>5</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B3:E3"/>
+  <autoFilter ref="B3:E21"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/docs/orga/habilitations.xlsx
+++ b/docs/orga/habilitations.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
   <si>
     <t>Nom</t>
   </si>
@@ -177,24 +177,6 @@
   </si>
   <si>
     <t>MINGW64</t>
-  </si>
-  <si>
-    <t>QAAFAVMODWEB13.dmzppappafa.intraxa</t>
-  </si>
-  <si>
-    <t>Serveurs coreit</t>
-  </si>
-  <si>
-    <t>QAAFAVMODWEB14.dmzppappafa.intraxa</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>Habilitations users</t>
-  </si>
-  <si>
-    <t>Habilitations vsts (ALISE\vstsafaagent)</t>
   </si>
   <si>
     <t>youness0710</t>
@@ -228,7 +210,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,14 +235,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -307,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -330,10 +304,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -648,7 +618,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I21"/>
+  <dimension ref="B3:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,7 +632,7 @@
     <col min="9" max="9" width="35.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -675,17 +645,8 @@
       <c r="E3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
@@ -696,19 +657,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
@@ -719,19 +671,10 @@
         <v>5</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
@@ -742,10 +685,10 @@
         <v>5</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
@@ -759,7 +702,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
@@ -773,7 +716,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
@@ -787,7 +730,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
@@ -801,7 +744,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
@@ -815,7 +758,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>20</v>
       </c>
@@ -826,10 +769,10 @@
         <v>5</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>22</v>
       </c>
@@ -843,7 +786,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>24</v>
       </c>
@@ -854,10 +797,10 @@
         <v>5</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>26</v>
       </c>
@@ -868,10 +811,10 @@
         <v>5</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>28</v>
       </c>
@@ -924,7 +867,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
@@ -938,7 +881,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
@@ -952,7 +895,7 @@
         <v>5</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
